--- a/1лаба/crm_quan.xlsx
+++ b/1лаба/crm_quan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учёба\7 семестр\Анализ нечисловых данных\static-analysis-of-non-numeric-data\1лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A56488-EDA7-4472-9311-589D3852502F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09044AD8-6907-46E4-B64D-4A7574EA9F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>

--- a/1лаба/crm_quan.xlsx
+++ b/1лаба/crm_quan.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учёба\7 семестр\Анализ нечисловых данных\static-analysis-of-non-numeric-data\1лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09044AD8-6907-46E4-B64D-4A7574EA9F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A79242-119B-40ED-9291-642E38CEB906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Крамер" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -426,7 +437,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L12"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,362 +480,362 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.14995354092796859</v>
+      </c>
       <c r="C2" s="2">
-        <v>0.19075030052718231</v>
+        <v>0.17179253462694169</v>
       </c>
       <c r="D2" s="2">
-        <v>8.6612148040085685E-2</v>
+        <v>0.1057004393367304</v>
       </c>
       <c r="E2" s="2">
-        <v>8.6612148040085685E-2</v>
+        <v>0.1057004393367304</v>
       </c>
       <c r="F2" s="2">
-        <v>0.17867347195707581</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.14995354092796859</v>
-      </c>
+        <v>0.2233985384819655</v>
+      </c>
+      <c r="G2" s="3"/>
       <c r="H2" s="2">
-        <v>0.15557653661705051</v>
+        <v>7.2315300937428828E-2</v>
       </c>
       <c r="I2" s="2">
-        <v>7.0167638577741775E-2</v>
+        <v>0.1320945190997336</v>
       </c>
       <c r="J2" s="2">
-        <v>0.2020301972065994</v>
+        <v>0.13316217786350501</v>
       </c>
       <c r="K2" s="2">
-        <v>0.1023990160408422</v>
+        <v>0.28757358760006629</v>
       </c>
       <c r="L2" s="2">
-        <v>0.19513841168726451</v>
+        <v>0.4917881777458824</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>0.19075030052718231</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>0.17867347195707581</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.19956356931201311</v>
+      </c>
       <c r="D3" s="2">
-        <v>0.1126681293569451</v>
+        <v>0.20278726032683639</v>
       </c>
       <c r="E3" s="2">
-        <v>0.1126681293569451</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.19956356931201311</v>
-      </c>
+        <v>0.20278726032683639</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="2">
-        <v>0.17179253462694169</v>
+        <v>0.2233985384819655</v>
       </c>
       <c r="H3" s="2">
-        <v>0.1020188085567998</v>
+        <v>0.2242282208667859</v>
       </c>
       <c r="I3" s="2">
-        <v>0.1149774958779114</v>
+        <v>0.22519143783912909</v>
       </c>
       <c r="J3" s="2">
-        <v>0.183560519330422</v>
+        <v>0.22177519883183211</v>
       </c>
       <c r="K3" s="2">
-        <v>0.11338749348775461</v>
+        <v>0.15190503742066491</v>
       </c>
       <c r="L3" s="2">
-        <v>0.26625980081919087</v>
+        <v>0.41064030296996179</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>8.6612148040085685E-2</v>
+        <v>0.1023990160408422</v>
       </c>
       <c r="C4" s="2">
-        <v>0.1126681293569451</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>0.11338749348775461</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8.1706296390789634E-2</v>
+      </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>8.1706296390789634E-2</v>
       </c>
       <c r="F4" s="2">
-        <v>0.20278726032683639</v>
+        <v>0.15190503742066491</v>
       </c>
       <c r="G4" s="2">
-        <v>0.1057004393367304</v>
+        <v>0.28757358760006629</v>
       </c>
       <c r="H4" s="2">
-        <v>5.4094840495137873E-2</v>
+        <v>6.3954998291618825E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>0.111331611786656</v>
+        <v>0.17111958228114249</v>
       </c>
       <c r="J4" s="2">
-        <v>0.15683606203253439</v>
-      </c>
-      <c r="K4" s="2">
-        <v>8.1706296390789634E-2</v>
-      </c>
+        <v>0.1016260814876984</v>
+      </c>
+      <c r="K4" s="3"/>
       <c r="L4" s="2">
-        <v>0.19761112773126549</v>
+        <v>0.39871204058240223</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>8.6612148040085685E-2</v>
-      </c>
-      <c r="C5" s="2">
+        <v>0.19075030052718231</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2">
         <v>0.1126681293569451</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2">
+        <v>0.1126681293569451</v>
+      </c>
       <c r="F5" s="2">
-        <v>0.20278726032683639</v>
+        <v>0.19956356931201311</v>
       </c>
       <c r="G5" s="2">
-        <v>0.1057004393367304</v>
+        <v>0.17179253462694169</v>
       </c>
       <c r="H5" s="2">
-        <v>5.4094840495137873E-2</v>
+        <v>0.1020188085567998</v>
       </c>
       <c r="I5" s="2">
-        <v>0.111331611786656</v>
+        <v>0.1149774958779114</v>
       </c>
       <c r="J5" s="2">
-        <v>0.15683606203253439</v>
+        <v>0.183560519330422</v>
       </c>
       <c r="K5" s="2">
-        <v>8.1706296390789634E-2</v>
+        <v>0.11338749348775461</v>
       </c>
       <c r="L5" s="2">
-        <v>0.19761112773126549</v>
+        <v>0.26625980081919087</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>0.17867347195707581</v>
+        <v>0.2020301972065994</v>
       </c>
       <c r="C6" s="2">
-        <v>0.19956356931201311</v>
+        <v>0.183560519330422</v>
       </c>
       <c r="D6" s="2">
-        <v>0.20278726032683639</v>
+        <v>0.15683606203253439</v>
       </c>
       <c r="E6" s="2">
-        <v>0.20278726032683639</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>0.15683606203253439</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.22177519883183211</v>
+      </c>
       <c r="G6" s="2">
-        <v>0.2233985384819655</v>
+        <v>0.13316217786350501</v>
       </c>
       <c r="H6" s="2">
-        <v>0.2242282208667859</v>
+        <v>0.20616101027276121</v>
       </c>
       <c r="I6" s="2">
-        <v>0.22519143783912909</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.22177519883183211</v>
-      </c>
+        <v>9.4638801005977782E-2</v>
+      </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="2">
-        <v>0.15190503742066491</v>
+        <v>0.1016260814876984</v>
       </c>
       <c r="L6" s="2">
-        <v>0.41064030296996179</v>
+        <v>0.25655782842356062</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>0.14995354092796859</v>
+        <v>8.6612148040085685E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>0.17179253462694169</v>
-      </c>
-      <c r="D7" s="2">
+        <v>0.1126681293569451</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.20278726032683639</v>
+      </c>
+      <c r="G7" s="2">
         <v>0.1057004393367304</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.1057004393367304</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.2233985384819655</v>
-      </c>
-      <c r="G7" s="3"/>
       <c r="H7" s="2">
-        <v>7.2315300937428828E-2</v>
+        <v>5.4094840495137873E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>0.1320945190997336</v>
+        <v>0.111331611786656</v>
       </c>
       <c r="J7" s="2">
-        <v>0.13316217786350501</v>
+        <v>0.15683606203253439</v>
       </c>
       <c r="K7" s="2">
-        <v>0.28757358760006629</v>
+        <v>8.1706296390789634E-2</v>
       </c>
       <c r="L7" s="2">
-        <v>0.4917881777458824</v>
+        <v>0.19761112773126549</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>0.15557653661705051</v>
+        <v>8.6612148040085685E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>0.1020188085567998</v>
+        <v>0.1126681293569451</v>
       </c>
       <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2">
+        <v>0.20278726032683639</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.1057004393367304</v>
+      </c>
+      <c r="H8" s="2">
         <v>5.4094840495137873E-2</v>
       </c>
-      <c r="E8" s="2">
-        <v>5.4094840495137873E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.22422822086678601</v>
-      </c>
-      <c r="G8" s="2">
-        <v>7.2315300937428828E-2</v>
-      </c>
-      <c r="H8" s="3"/>
       <c r="I8" s="2">
-        <v>4.6923976312525331E-2</v>
+        <v>0.111331611786656</v>
       </c>
       <c r="J8" s="2">
-        <v>0.20616101027276121</v>
+        <v>0.15683606203253439</v>
       </c>
       <c r="K8" s="2">
-        <v>6.3954998291618825E-2</v>
+        <v>8.1706296390789634E-2</v>
       </c>
       <c r="L8" s="2">
-        <v>3.2364600348399178E-2</v>
+        <v>0.19761112773126549</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2">
+        <v>0.19075030052718231</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8.6612148040085685E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8.6612148040085685E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.17867347195707581</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.14995354092796859</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.15557653661705051</v>
+      </c>
+      <c r="I9" s="2">
         <v>7.0167638577741775E-2</v>
       </c>
-      <c r="C9" s="2">
-        <v>0.1149774958779114</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.111331611786656</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.111331611786656</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.22519143783912909</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.1320945190997336</v>
-      </c>
-      <c r="H9" s="2">
-        <v>4.6923976312525317E-2</v>
-      </c>
-      <c r="I9" s="3"/>
       <c r="J9" s="2">
-        <v>9.4638801005977782E-2</v>
+        <v>0.2020301972065994</v>
       </c>
       <c r="K9" s="2">
-        <v>0.1711195822811426</v>
+        <v>0.1023990160408422</v>
       </c>
       <c r="L9" s="2">
-        <v>0.1107326546756331</v>
+        <v>0.19513841168726451</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>0.2020301972065994</v>
+        <v>7.0167638577741775E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>0.183560519330422</v>
+        <v>0.1149774958779114</v>
       </c>
       <c r="D10" s="2">
-        <v>0.15683606203253439</v>
+        <v>0.111331611786656</v>
       </c>
       <c r="E10" s="2">
-        <v>0.15683606203253439</v>
+        <v>0.111331611786656</v>
       </c>
       <c r="F10" s="2">
-        <v>0.22177519883183211</v>
+        <v>0.22519143783912909</v>
       </c>
       <c r="G10" s="2">
-        <v>0.13316217786350501</v>
+        <v>0.1320945190997336</v>
       </c>
       <c r="H10" s="2">
-        <v>0.20616101027276121</v>
-      </c>
-      <c r="I10" s="2">
+        <v>4.6923976312525317E-2</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2">
         <v>9.4638801005977782E-2</v>
       </c>
-      <c r="J10" s="3"/>
       <c r="K10" s="2">
-        <v>0.1016260814876984</v>
+        <v>0.1711195822811426</v>
       </c>
       <c r="L10" s="2">
-        <v>0.25655782842356062</v>
+        <v>0.1107326546756331</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2">
-        <v>0.1023990160408422</v>
+        <v>0.15557653661705051</v>
       </c>
       <c r="C11" s="2">
-        <v>0.11338749348775461</v>
+        <v>0.1020188085567998</v>
       </c>
       <c r="D11" s="2">
-        <v>8.1706296390789634E-2</v>
+        <v>5.4094840495137873E-2</v>
       </c>
       <c r="E11" s="2">
-        <v>8.1706296390789634E-2</v>
+        <v>5.4094840495137873E-2</v>
       </c>
       <c r="F11" s="2">
-        <v>0.15190503742066491</v>
+        <v>0.22422822086678601</v>
       </c>
       <c r="G11" s="2">
-        <v>0.28757358760006629</v>
-      </c>
-      <c r="H11" s="2">
+        <v>7.2315300937428828E-2</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2">
+        <v>4.6923976312525331E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.20616101027276121</v>
+      </c>
+      <c r="K11" s="2">
         <v>6.3954998291618825E-2</v>
       </c>
-      <c r="I11" s="2">
-        <v>0.17111958228114249</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.1016260814876984</v>
-      </c>
-      <c r="K11" s="3"/>
       <c r="L11" s="2">
-        <v>0.39871204058240223</v>
+        <v>3.2364600348399178E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -850,7 +861,7 @@
         <v>0.49178817774588252</v>
       </c>
       <c r="H12" s="2">
-        <v>3.2364600348399178E-2</v>
+        <v>3.2364600348399199E-2</v>
       </c>
       <c r="I12" s="2">
         <v>0.1107326546756331</v>
@@ -864,6 +875,9 @@
       <c r="L12" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L12">
+    <sortCondition descending="1" ref="L2:L12"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>